--- a/BackTest/2019-11-21 BackTest FAB.xlsx
+++ b/BackTest/2019-11-21 BackTest FAB.xlsx
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -17531,14 +17531,20 @@
         <v>9.464999999999984</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17566,14 +17572,20 @@
         <v>9.484999999999983</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>9.48</v>
+      </c>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17601,14 +17613,20 @@
         <v>9.434999999999983</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>9.49</v>
+      </c>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17636,14 +17654,20 @@
         <v>9.404999999999983</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>9.380000000000001</v>
+      </c>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17671,14 +17695,20 @@
         <v>9.434999999999981</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>9.43</v>
+      </c>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17706,14 +17736,20 @@
         <v>9.454999999999981</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17748,7 +17784,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +17823,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17818,7 +17862,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17853,7 +17901,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17888,7 +17940,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -17923,7 +17979,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -17958,7 +18018,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -17993,7 +18057,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +18096,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18063,7 +18135,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18098,7 +18174,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18133,7 +18213,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18168,7 +18252,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18203,7 +18291,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18238,7 +18330,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18273,7 +18369,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18408,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18343,7 +18447,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18378,7 +18486,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18413,7 +18525,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18448,7 +18564,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18483,7 +18603,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18518,7 +18642,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18553,7 +18681,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18588,7 +18720,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18623,7 +18759,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18658,7 +18798,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18693,7 +18837,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18728,7 +18876,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18763,7 +18915,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18798,7 +18954,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18833,7 +18993,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18868,7 +19032,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18903,7 +19071,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -18938,7 +19110,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -18973,7 +19149,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19008,7 +19188,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19043,7 +19227,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19078,7 +19266,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19113,7 +19305,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19148,7 +19344,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +19383,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19218,7 +19422,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19253,7 +19461,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19288,7 +19500,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19323,7 +19539,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19358,7 +19578,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19386,18 +19610,16 @@
         <v>9.234999999999978</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M543" t="n">
@@ -19427,14 +19649,12 @@
         <v>9.264999999999977</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>9.210000000000001</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
@@ -19468,14 +19688,12 @@
         <v>9.239999999999977</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>9.27</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
@@ -19509,14 +19727,12 @@
         <v>9.264999999999977</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
@@ -19550,14 +19766,12 @@
         <v>9.369999999999976</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>9.31</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
@@ -19591,14 +19805,12 @@
         <v>9.369999999999976</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>9.27</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
@@ -19632,14 +19844,12 @@
         <v>9.319999999999975</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
@@ -19673,14 +19883,12 @@
         <v>9.334999999999976</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
@@ -19714,14 +19922,12 @@
         <v>9.354999999999976</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
@@ -19755,14 +19961,12 @@
         <v>9.309999999999974</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
@@ -19796,14 +20000,12 @@
         <v>9.229999999999974</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
@@ -19837,14 +20039,12 @@
         <v>9.199999999999974</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>9.199999999999999</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
@@ -19878,14 +20078,12 @@
         <v>9.209999999999974</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>9.210000000000001</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
@@ -19919,14 +20117,12 @@
         <v>9.169999999999975</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
@@ -19960,14 +20156,12 @@
         <v>9.259999999999977</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
@@ -20001,14 +20195,12 @@
         <v>9.299999999999976</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>9.27</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
@@ -20042,14 +20234,12 @@
         <v>9.114999999999977</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>9.19</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
@@ -20083,14 +20273,12 @@
         <v>8.969999999999978</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>9.029999999999999</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
@@ -20124,14 +20312,12 @@
         <v>8.929999999999978</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
@@ -20204,14 +20390,12 @@
         <v>9.059999999999979</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>9.19</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
@@ -20362,14 +20546,12 @@
         <v>9.039999999999981</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
@@ -20403,14 +20585,12 @@
         <v>9.019999999999982</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
@@ -20444,14 +20624,12 @@
         <v>9.029999999999982</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
@@ -20485,14 +20663,12 @@
         <v>9.039999999999981</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>9.039999999999999</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
@@ -20526,14 +20702,12 @@
         <v>9.059999999999981</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>9.039999999999999</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
@@ -20567,14 +20741,12 @@
         <v>9.039999999999981</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
@@ -20608,14 +20780,12 @@
         <v>8.994999999999983</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>9</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
@@ -20649,14 +20819,12 @@
         <v>8.994999999999983</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>9.06</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
@@ -20690,14 +20858,12 @@
         <v>9.014999999999983</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>9</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
@@ -20731,14 +20897,12 @@
         <v>9.044999999999984</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>9.27</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
@@ -20772,14 +20936,12 @@
         <v>9.059999999999985</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>9.029999999999999</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
@@ -20813,14 +20975,12 @@
         <v>9.059999999999985</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
@@ -20854,14 +21014,12 @@
         <v>9.064999999999984</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>9.06</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
@@ -20895,14 +21053,12 @@
         <v>9.109999999999982</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
@@ -20936,14 +21092,12 @@
         <v>9.124999999999982</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
@@ -20977,14 +21131,12 @@
         <v>9.109999999999982</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>9.109999999999999</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
@@ -21018,14 +21170,12 @@
         <v>9.16999999999998</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
@@ -21059,14 +21209,12 @@
         <v>9.194999999999983</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>9.15</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
@@ -21100,14 +21248,12 @@
         <v>9.179999999999982</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>9.18</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
@@ -21141,14 +21287,12 @@
         <v>9.194999999999983</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>9.16</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
@@ -21182,14 +21326,12 @@
         <v>9.264999999999983</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>9.27</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
@@ -21223,14 +21365,12 @@
         <v>9.324999999999983</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
@@ -21264,14 +21404,12 @@
         <v>9.314999999999984</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
@@ -21305,14 +21443,12 @@
         <v>9.329999999999984</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
@@ -21346,14 +21482,12 @@
         <v>9.374999999999982</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
@@ -21387,14 +21521,12 @@
         <v>9.374999999999982</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
@@ -21428,14 +21560,12 @@
         <v>9.449999999999982</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>9.539999999999999</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
@@ -21469,14 +21599,12 @@
         <v>9.49499999999998</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
@@ -21510,14 +21638,12 @@
         <v>9.349999999999978</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
@@ -21551,14 +21677,12 @@
         <v>9.27999999999998</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
@@ -21592,14 +21716,12 @@
         <v>9.33499999999998</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
@@ -21633,14 +21755,12 @@
         <v>9.379999999999979</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
@@ -21674,14 +21794,12 @@
         <v>9.36999999999998</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
@@ -21715,14 +21833,12 @@
         <v>9.299999999999979</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
@@ -21756,14 +21872,12 @@
         <v>9.174999999999979</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
@@ -21797,14 +21911,12 @@
         <v>9.13499999999998</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>9.15</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
@@ -21838,14 +21950,12 @@
         <v>9.164999999999981</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>9.16</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
@@ -21879,14 +21989,12 @@
         <v>9.159999999999982</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>9.16</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
@@ -21920,14 +22028,12 @@
         <v>9.204999999999982</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>9.25</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
@@ -21961,14 +22067,12 @@
         <v>9.264999999999981</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
@@ -22002,14 +22106,12 @@
         <v>9.27999999999998</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
@@ -22043,14 +22145,12 @@
         <v>9.264999999999979</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>9.25</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
@@ -22084,14 +22184,12 @@
         <v>9.24499999999998</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>9.24</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
@@ -22125,14 +22223,12 @@
         <v>9.204999999999981</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>9.18</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
@@ -22166,14 +22262,12 @@
         <v>9.164999999999981</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>9.19</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
@@ -22207,14 +22301,12 @@
         <v>9.129999999999981</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
@@ -22248,14 +22340,12 @@
         <v>9.10999999999998</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
@@ -22289,14 +22379,12 @@
         <v>9.11999999999998</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
@@ -22330,14 +22418,12 @@
         <v>9.114999999999981</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
@@ -22371,14 +22457,12 @@
         <v>9.109999999999982</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
@@ -22412,14 +22496,12 @@
         <v>9.109999999999982</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>9.109999999999999</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
@@ -22453,14 +22535,12 @@
         <v>9.149999999999981</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>9.19</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
@@ -22494,14 +22574,12 @@
         <v>9.194999999999981</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>9.19</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
@@ -22535,14 +22613,12 @@
         <v>9.219999999999981</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>9.119999999999999</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
@@ -22576,14 +22652,12 @@
         <v>9.244999999999981</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>9.24</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
@@ -22617,14 +22691,12 @@
         <v>9.284999999999982</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
@@ -22658,14 +22730,12 @@
         <v>9.359999999999982</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
@@ -22699,14 +22769,12 @@
         <v>9.389999999999983</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
@@ -22740,14 +22808,12 @@
         <v>9.389999999999983</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -22781,14 +22847,12 @@
         <v>9.414999999999981</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
@@ -22822,14 +22886,12 @@
         <v>9.454999999999981</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>9.48</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
@@ -22863,14 +22925,12 @@
         <v>9.49499999999998</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>9.470000000000001</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
@@ -22904,14 +22964,12 @@
         <v>9.45999999999998</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
@@ -22945,14 +23003,12 @@
         <v>9.50999999999998</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
@@ -22986,14 +23042,12 @@
         <v>9.614999999999979</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>9.609999999999999</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
@@ -24275,14 +24329,12 @@
         <v>9.289999999999985</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="n">
-        <v>9.49</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
@@ -24316,14 +24368,12 @@
         <v>9.289999999999985</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
@@ -24357,14 +24407,12 @@
         <v>9.294999999999986</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
@@ -24398,14 +24446,12 @@
         <v>9.294999999999986</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
@@ -24439,14 +24485,12 @@
         <v>9.289999999999985</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
@@ -24480,14 +24524,12 @@
         <v>9.384999999999986</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>9.48</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
@@ -24521,14 +24563,12 @@
         <v>9.389999999999986</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
@@ -24601,14 +24641,12 @@
         <v>9.309999999999986</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="n">
-        <v>9.31</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
@@ -24642,14 +24680,12 @@
         <v>9.424999999999986</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="n">
-        <v>9.539999999999999</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
@@ -24683,14 +24719,12 @@
         <v>9.424999999999986</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="n">
-        <v>9.31</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
@@ -24802,14 +24836,12 @@
         <v>9.319999999999986</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
@@ -24843,14 +24875,12 @@
         <v>9.319999999999986</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
@@ -24884,14 +24914,12 @@
         <v>9.319999999999986</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
@@ -24925,14 +24953,12 @@
         <v>9.319999999999986</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
@@ -24966,14 +24992,12 @@
         <v>9.319999999999986</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
-      <c r="J681" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
@@ -25007,14 +25031,12 @@
         <v>9.319999999999986</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
       </c>
-      <c r="J682" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
@@ -25048,14 +25070,12 @@
         <v>9.324999999999985</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
@@ -25089,14 +25109,12 @@
         <v>9.389999999999985</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
       </c>
-      <c r="J684" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
@@ -25130,14 +25148,12 @@
         <v>9.409999999999986</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>

--- a/BackTest/2019-11-21 BackTest FAB.xlsx
+++ b/BackTest/2019-11-21 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4840,7 +4840,7 @@
         <v>4797888.955337598</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>4797888.955337598</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>4388938.01686387</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>4558049.479763869</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>4819270.098363869</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>5247111.092463869</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>4130272.158163868</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>4131996.897163868</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4480473.678463868</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>4002573.597963868</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3750655.053063868</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>3813211.673563868</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3803697.246763867</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>8142508.552728542</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>6294547.907808051</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>8208933.812263981</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9249808.409815004</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>8356050.164887886</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>9127535.292387886</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>9306874.590442151</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>9002805.878495142</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>9062036.234149843</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>9334357.899366328</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>8391217.806711156</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>8686833.688755983</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>6866198.994455984</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>6655756.81987027</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>6655756.81987027</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>6415433.54517027</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>7308835.182566145</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>7308835.182566145</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>7846716.976314962</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>6414838.302216738</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>6841921.239816738</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>6841921.239816738</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>6841921.239816738</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>5471194.231073376</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>2281071.466073376</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>3670849.095682466</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>3670849.095682466</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>3381022.950652819</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>4060853.499108723</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>4060853.499108723</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>4060853.499108723</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>4220118.053024794</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>4087214.84328908</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>4087313.84328908</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>4087313.84328908</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>4076264.17718908</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>4076264.17718908</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>4076352.17718908</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>4080689.17718908</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>4054254.59479899</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>4054254.59479899</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>4054254.59479899</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>3762236.759363293</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>3852387.376530364</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>3505768.657830364</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>6875891.364897304</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>6717829.803618462</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -20317,11 +20317,17 @@
         <v>-3689491.882212872</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>9.27</v>
+      </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20356,17 @@
         <v>-3631471.608027894</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>9.210000000000001</v>
+      </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20399,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20432,17 @@
         <v>-3908789.390600662</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>9.42</v>
+      </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +20471,17 @@
         <v>-3908789.390600662</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>9.32</v>
+      </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20514,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20551,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20588,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20625,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20662,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20699,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20736,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +20773,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +20810,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +20847,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +20880,17 @@
         <v>-5570878.871888332</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>9.029999999999999</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +20923,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +20956,17 @@
         <v>-2992750.766188332</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +20999,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +21036,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21073,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21106,17 @@
         <v>-2511218.062125901</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>8.99</v>
+      </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21145,17 @@
         <v>-2679952.842625901</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>9.06</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21184,17 @@
         <v>-2679952.842625901</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21223,17 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21262,17 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>9.039999999999999</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21301,17 @@
         <v>-2558081.082951697</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>9.039999999999999</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,7 +21340,7 @@
         <v>-2783154.022551697</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>9.08</v>
@@ -21216,7 +21348,7 @@
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L631" t="n">
@@ -21247,7 +21379,7 @@
         <v>-3053495.094651697</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>9</v>
@@ -21286,7 +21418,7 @@
         <v>-3045876.674851697</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>8.99</v>
@@ -21325,7 +21457,7 @@
         <v>-2855718.840151697</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>9</v>
@@ -21364,7 +21496,7 @@
         <v>-2824813.397351697</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>9.029999999999999</v>
@@ -21403,7 +21535,7 @@
         <v>-2824813.397351697</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>9.06</v>
@@ -21442,7 +21574,7 @@
         <v>-2824813.397351697</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>9.06</v>
@@ -21481,7 +21613,7 @@
         <v>-2824546.397351697</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>9.06</v>
@@ -21520,7 +21652,7 @@
         <v>-2544355.571851697</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>9.07</v>
@@ -21559,7 +21691,7 @@
         <v>-2553913.454651697</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>9.15</v>
@@ -21598,7 +21730,7 @@
         <v>-2275267.874951697</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>9.1</v>
@@ -21637,7 +21769,7 @@
         <v>-2070776.749329825</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>9.119999999999999</v>
@@ -21676,9 +21808,11 @@
         <v>-2115142.843829826</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>9.220000000000001</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -21713,9 +21847,11 @@
         <v>-1973337.131229826</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>9.17</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21750,9 +21886,11 @@
         <v>-1510107.244793726</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>9.19</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -21787,9 +21925,11 @@
         <v>-1182194.690729826</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22897,7 +23037,7 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>9.109999999999999</v>
@@ -22936,7 +23076,7 @@
         <v>-1901637.136729826</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>9.109999999999999</v>
@@ -22975,7 +23115,7 @@
         <v>-1831451.413629825</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>9.19</v>
@@ -23014,7 +23154,7 @@
         <v>-1829156.438329825</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>9.199999999999999</v>
@@ -23053,7 +23193,7 @@
         <v>-1786926.890029826</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>9.24</v>
@@ -23092,7 +23232,7 @@
         <v>-1771327.496929826</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>9.25</v>
@@ -23131,7 +23271,7 @@
         <v>-1554117.285229825</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>9.32</v>
@@ -23170,7 +23310,7 @@
         <v>-1598245.363529825</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>9.4</v>
@@ -23209,7 +23349,7 @@
         <v>-1401022.835329825</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>9.380000000000001</v>
@@ -23248,11 +23388,9 @@
         <v>-1342298.356829825</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>9.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23287,7 +23425,7 @@
         <v>-1317404.428729825</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>9.43</v>
@@ -23326,7 +23464,7 @@
         <v>-1258085.129675672</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>9.48</v>
@@ -23365,11 +23503,9 @@
         <v>-1285885.527356514</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>9.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23404,11 +23540,9 @@
         <v>-1203931.488156514</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>9.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23443,11 +23577,9 @@
         <v>-1104514.00189151</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>9.609999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -23482,11 +23614,9 @@
         <v>-1292487.55329151</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>9.619999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -23521,11 +23651,9 @@
         <v>-888652.1334915096</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="n">
-        <v>9.539999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -23560,11 +23688,9 @@
         <v>-889386.1334915096</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>9.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -23599,11 +23725,9 @@
         <v>-1140509.77159151</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>9.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -32977,6 +33101,6 @@
       <c r="M947" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest FAB.xlsx
+++ b/BackTest/2019-11-21 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4840,7 +4840,7 @@
         <v>4797888.955337598</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>4388938.01686387</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3750655.053063868</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>3813211.673563868</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3914604.015463868</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>3773651.693763867</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3803697.246763867</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2564659.583063867</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>2564860.583063867</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>8142508.552728542</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>6294547.907808051</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>8208933.812263981</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9249808.409815004</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>8356050.164887886</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>9127535.292387886</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>9306874.590442151</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>9002805.878495142</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>9062036.234149843</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>9334357.899366328</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>8391217.806711156</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>8686833.688755983</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>6866198.994455984</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>6655756.81987027</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>6655756.81987027</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>6415433.54517027</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>7308835.182566145</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>7308835.182566145</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>7846716.976314962</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>6414838.302216738</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>6841921.239816738</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>6841921.239816738</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>6841921.239816738</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>5471194.231073376</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>2281071.466073376</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>3670849.095682466</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>3670849.095682466</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>3381022.950652819</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>4060853.499108723</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>4060853.499108723</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>4060853.499108723</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>4220118.053024794</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>4087214.84328908</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>4087313.84328908</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>4087313.84328908</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>4076264.17718908</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>4076264.17718908</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>4076352.17718908</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>4080689.17718908</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>4054254.59479899</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>4054254.59479899</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>4054254.59479899</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>3762236.759363293</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>3852387.376530364</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>3505768.657830364</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>2688828.013942532</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>3018611.86267646</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -20152,11 +20152,17 @@
         <v>-3869560.723616656</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20195,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20232,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20269,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20302,17 @@
         <v>-3592817.467916656</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>9.26</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,15 +20341,13 @@
         <v>-3689491.882212872</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>9.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L604" t="n">
@@ -20356,11 +20378,9 @@
         <v>-3631471.608027894</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>9.210000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -20395,9 +20415,11 @@
         <v>-3571476.784382191</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>9.32</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -20432,11 +20454,9 @@
         <v>-3908789.390600662</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>9.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -20471,11 +20491,9 @@
         <v>-3908789.390600662</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>9.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -20510,9 +20528,11 @@
         <v>-3900297.395782748</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>9.32</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -20658,9 +20678,11 @@
         <v>-4143160.153571523</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -20695,9 +20717,11 @@
         <v>-3848723.893871523</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -20732,9 +20756,11 @@
         <v>-3996025.523771523</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>9.220000000000001</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -20769,9 +20795,11 @@
         <v>-3583131.262988332</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>9.119999999999999</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -20806,9 +20834,11 @@
         <v>-3751876.127488332</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -20843,9 +20873,11 @@
         <v>-4231201.041988332</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -20919,9 +20951,11 @@
         <v>-5401216.901788332</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>8.91</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21106,11 +21140,9 @@
         <v>-2511218.062125901</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>8.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21145,11 +21177,9 @@
         <v>-2679952.842625901</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>9.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21184,11 +21214,9 @@
         <v>-2679952.842625901</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21223,11 +21251,9 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21262,11 +21288,9 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>9.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21301,11 +21325,9 @@
         <v>-2558081.082951697</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>9.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21340,11 +21362,9 @@
         <v>-2783154.022551697</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>9.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21379,11 +21399,9 @@
         <v>-3053495.094651697</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21418,11 +21436,9 @@
         <v>-3045876.674851697</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>8.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21457,11 +21473,9 @@
         <v>-2855718.840151697</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21730,11 +21744,9 @@
         <v>-2275267.874951697</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>9.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -21769,11 +21781,9 @@
         <v>-2070776.749329825</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>9.119999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -21808,11 +21818,9 @@
         <v>-2115142.843829826</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>9.220000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -21847,11 +21855,9 @@
         <v>-1973337.131229826</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>9.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21886,11 +21892,9 @@
         <v>-1510107.244793726</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>9.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -21925,11 +21929,9 @@
         <v>-1182194.690729826</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>9.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22926,9 +22928,11 @@
         <v>-1917811.074329826</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>9.119999999999999</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -22963,9 +22967,11 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>9.119999999999999</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23000,9 +23006,11 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>9.109999999999999</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23310,11 +23318,9 @@
         <v>-1598245.363529825</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>9.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -23388,9 +23394,11 @@
         <v>-1342298.356829825</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23425,11 +23433,9 @@
         <v>-1317404.428729825</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>9.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23464,11 +23470,9 @@
         <v>-1258085.129675672</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>9.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -33101,6 +33105,6 @@
       <c r="M947" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest FAB.xlsx
+++ b/BackTest/2019-11-21 BackTest FAB.xlsx
@@ -4840,7 +4840,7 @@
         <v>4797888.955337598</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>4388938.01686387</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3750655.053063868</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>3813211.673563868</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3914604.015463868</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>3773651.693763867</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3803697.246763867</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2564659.583063867</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>2564860.583063867</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>8208933.812263981</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9249808.409815004</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>8356050.164887886</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>9127535.292387886</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>9306874.590442151</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>9002805.878495142</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>9062036.234149843</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>9334357.899366328</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>8391217.806711156</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>8686833.688755983</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>8686833.688755983</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>8686789.688755983</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>6866198.994455984</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>6655756.81987027</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>7846716.976314962</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>2688828.013942532</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>3018611.86267646</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -20152,17 +20152,11 @@
         <v>-3869560.723616656</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>9.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20195,11 +20189,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20232,11 +20222,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20269,11 +20255,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20302,17 +20284,11 @@
         <v>-3592817.467916656</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>9.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20345,11 +20321,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20382,11 +20354,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20415,17 +20383,11 @@
         <v>-3571476.784382191</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>9.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20458,11 +20420,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20495,11 +20453,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20528,17 +20482,11 @@
         <v>-3900297.395782748</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>9.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20571,11 +20519,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20608,11 +20552,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20645,11 +20585,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20678,17 +20614,11 @@
         <v>-4143160.153571523</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>9.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20717,17 +20647,11 @@
         <v>-3848723.893871523</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>9.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20756,17 +20680,11 @@
         <v>-3996025.523771523</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>9.220000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20803,7 +20721,7 @@
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L616" t="n">
@@ -20834,11 +20752,9 @@
         <v>-3751876.127488332</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>9.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -20951,11 +20867,9 @@
         <v>-5401216.901788332</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>8.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -20990,11 +20904,9 @@
         <v>-2992750.766188332</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21214,9 +21126,11 @@
         <v>-2679952.842625901</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21251,9 +21165,11 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21288,9 +21204,11 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>9.039999999999999</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21325,9 +21243,11 @@
         <v>-2558081.082951697</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>9.039999999999999</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21362,9 +21282,11 @@
         <v>-2783154.022551697</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>9.08</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21399,9 +21321,11 @@
         <v>-3053495.094651697</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>9</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21436,9 +21360,11 @@
         <v>-3045876.674851697</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>8.99</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21473,9 +21399,11 @@
         <v>-2855718.840151697</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>9</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21744,9 +21672,11 @@
         <v>-2275267.874951697</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>9.1</v>
+      </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -21781,9 +21711,11 @@
         <v>-2070776.749329825</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>9.119999999999999</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -21818,9 +21750,11 @@
         <v>-2115142.843829826</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>9.220000000000001</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -21855,9 +21789,11 @@
         <v>-1973337.131229826</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>9.17</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21892,9 +21828,11 @@
         <v>-1510107.244793726</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>9.19</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -21929,9 +21867,11 @@
         <v>-1182194.690729826</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22669,9 +22609,11 @@
         <v>-1812205.418729826</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -22743,9 +22685,11 @@
         <v>-1828843.949729826</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>9.25</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -22928,11 +22872,9 @@
         <v>-1917811.074329826</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>9.119999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -22967,11 +22909,9 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>9.119999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23006,11 +22946,9 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>9.109999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23318,9 +23256,11 @@
         <v>-1598245.363529825</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -23394,11 +23334,9 @@
         <v>-1342298.356829825</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>9.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
